--- a/Documents/TestingTemplate_PlayTesting.xlsx
+++ b/Documents/TestingTemplate_PlayTesting.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EroR43/Documents/GitHub/TAFE-Group-Game/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA37E69-7D10-BC4B-B466-2B7F06AFC244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,20 +22,20 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Josh Ferguson</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Record the frame rate of the application, CPU usage, GPU usage, and RAM usage in this section. This information can be found by viewing the performance tab of the task manager.</t>
         </r>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -54,9 +60,6 @@
     <t>Team Endorsement</t>
   </si>
   <si>
-    <t>Author - Joshua Ferguson</t>
-  </si>
-  <si>
     <t>Test Results</t>
   </si>
   <si>
@@ -70,12 +73,62 @@
   </si>
   <si>
     <t>Name of Tester</t>
+  </si>
+  <si>
+    <t>General Play Testing</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Pause Menu would be nice to allow players to go back to the mainmenu, quit button on the main menu doesn't work</t>
+  </si>
+  <si>
+    <t>Needs addition to artwork and story.</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Sword monster is to overpowered, unbalanced, enemies attacking first makes it difficult to win</t>
+  </si>
+  <si>
+    <t>Thought the game was alright, but needed to have work done on the battle's balance to make the game more enjoyable, with artwork and story adding to that that enjoyability.</t>
+  </si>
+  <si>
+    <t>Thought the game was alright, but thought that additions could be added to the game to be more functional, easier to access settings and such.</t>
+  </si>
+  <si>
+    <t>Environment is very bland, he player object doesn't stand out too well - consider  giving the player object a unique colour
+The Hud and UI are damn good!  Combat looks and feels very static - maybe  add Animations for attacking/hurting would make it look nicer. Sound clips could also help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ran at 60 FPS the whole time, with no lag. "Quit" button on the Menu didn't work
+A Reference sheet, or a tutorial on the controls/goals of the game would be nice to have
+A Healing mechanic, within the Battle menu, could help with making combat less difficult.
+A way to improve your monster could also help with the difficulty, EXP gain and leveling
+The three available monsters  don't really feel any different from each other, maybe give them unique abilities </t>
+  </si>
+  <si>
+    <t>Author - Eric Hanks</t>
+  </si>
+  <si>
+    <t>Enjoyed the game, found that the   quit button didn't work, thought that more instructions would be helpful, suggested adding healing mechanics to battles to reduce difficulty of battles, suggested progression through monster leveling and making the monsters more unique. Believed that the game's art and animations should  be improved.</t>
+  </si>
+  <si>
+    <t>Look at options for balancing the game, health and damage adjustments, move sets to give each monster an edge against the other. Look at producing more artwork and models for the game</t>
+  </si>
+  <si>
+    <t>Look into creating pause menu functionality and fixing the quit button. Create more visual assets for the game.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,9 +156,9 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -134,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -158,15 +211,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -179,29 +243,44 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -211,14 +290,296 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A5B6420-5631-3A44-B5CF-44D7E7205C70}" name="Table1" displayName="Table1" ref="C3:J13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C3:J13" xr:uid="{B19C1100-C686-CA4A-95B5-26B800151006}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{54B959D6-2706-604E-8A35-95C51D264D33}" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9326E452-E63A-B04D-A451-F3F308599FD8}" name="Test Case/Scenario" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{10AFF1AE-DD10-1F41-9074-309FD04C0546}" name="Name of Tester" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A4219CD9-A1B2-F347-8663-16E52619AA62}" name="Engagement - Gameplay" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D938E728-66C1-B545-B1EB-98784E16C2C2}" name="Engagement - Story/Lore" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{14F94DF8-5EAB-3244-A336-1A83CA05DB5F}" name="Test Results" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{9464C120-5654-B646-BB93-7C27DBDE006D}" name="Suggested Actions" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{36ED3D4F-5D9E-B343-B0DB-9B7C206BF5B1}" name="Team Endorsement" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -264,7 +625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,9 +658,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,6 +710,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,160 +902,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="3" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="4" spans="3:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="C4" s="9">
+        <v>43967</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+    <row r="5" spans="3:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="C5" s="8">
+        <v>43967</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+    <row r="6" spans="3:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="C6" s="10">
+        <v>43967</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -672,28 +1110,31 @@
     <oddHeader>&amp;LAuthor - Joshua Ferguson&amp;CSouth Metro TAFE</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/TestingTemplate_PlayTesting.xlsx
+++ b/Documents/TestingTemplate_PlayTesting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EroR43/Documents/GitHub/TAFE-Group-Game/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperUser\Documents\GitHub\TAFE-Group-Game\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA37E69-7D10-BC4B-B466-2B7F06AFC244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE70993B-C6B4-4FB0-86F2-45DE02B44DC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Look into creating pause menu functionality and fixing the quit button. Create more visual assets for the game.</t>
+  </si>
+  <si>
+    <t>Fix quit button and other functionalities, include short little paragraph that has a run down of the controls and some of the battle mechanics, look Healing and Leveling mechanics for the future development of the game. Improve upon visual assets and create new visual assets.</t>
   </si>
 </sst>
 </file>
@@ -906,23 +909,23 @@
   <dimension ref="C1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
@@ -934,7 +937,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="3" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -960,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C4" s="9">
         <v>43967</v>
       </c>
@@ -984,7 +987,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="3:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="8">
         <v>43967</v>
       </c>
@@ -1008,7 +1011,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="3:10" ht="160" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:10" ht="165" x14ac:dyDescent="0.25">
       <c r="C6" s="10">
         <v>43967</v>
       </c>
@@ -1027,10 +1030,12 @@
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
@@ -1040,7 +1045,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1050,7 +1055,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1060,7 +1065,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1070,7 +1075,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1080,7 +1085,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1090,7 +1095,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1122,7 +1127,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1134,7 +1139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
